--- a/logboek.xlsx
+++ b/logboek.xlsx
@@ -23,6 +23,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Verslagen van vorige jaren doorlezen, documentatie zoeken over metasploit</t>
+  </si>
+  <si>
+    <t>Metasploit installeren op raspberry PI en exploits zoeken</t>
+  </si>
+  <si>
+    <t>Exploits uitvoeren via kali</t>
+  </si>
+  <si>
+    <t>Exploits uitvoeren vanop raspbery pi</t>
+  </si>
+  <si>
+    <t>Verslag maken</t>
+  </si>
+  <si>
+    <t>Logboek</t>
+  </si>
+  <si>
+    <t>Nick Lauwerijs, Koen Verstraelen en Berten Bevers</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
@@ -42,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +94,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -336,12 +396,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>